--- a/data/Unicrypt/Unicrypt20140701.xlsx
+++ b/data/Unicrypt/Unicrypt20140701.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
